--- a/Datos_2020_2021/pesos iniciales anchoveta_sept2021.xlsx
+++ b/Datos_2020_2021/pesos iniciales anchoveta_sept2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2022/ANCHOVETA_ZCS/PRIMER_INFORME/Datos_2020_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C094EE-7B33-CC41-B2E1-32D844BBA4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0ADEBF-36B9-4E44-8913-7D1B92B0F57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="520" windowWidth="24340" windowHeight="21340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="860" windowWidth="24340" windowHeight="21340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="calendario" sheetId="1" r:id="rId1"/>
@@ -9301,7 +9301,7 @@
   <dimension ref="A7:BG39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:G34"/>
+      <selection activeCell="P38" sqref="P38:T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
